--- a/Quater_Damage_Price/viviendas.xlsx
+++ b/Quater_Damage_Price/viviendas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://upcedupe-my.sharepoint.com/personal/u201517391_upc_edu_pe/Documents/TP - Proyecto/Recursos SF/Sprint 7/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A0DB5DC-FC51-4C80-A83F-208C182231CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{31C0B039-180E-4457-9DEE-90F8AF075059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D62DD7BA-7FF4-4DFB-AC18-E54729C595B9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{78389C73-E7B1-439A-8897-40DFB9C3CDFF}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="191028" iterate="1" iterateCount="1000" calcOnSave="0"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Distrito</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Villa María del Triunfo</t>
+  </si>
+  <si>
+    <t>Area km2</t>
   </si>
 </sst>
 </file>
@@ -300,7 +303,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,2370 +599,2484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F96B51-210E-4D76-A00C-FA0C3AC9A36A}">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12" customWidth="1"/>
-    <col min="17" max="17" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="38.5546875" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>20</v>
       </c>
       <c r="B2">
+        <v>299.22000000000003</v>
+      </c>
+      <c r="C2">
         <v>-77.176100000000005</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-11.7736</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>25428</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>884</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>28</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>62</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>548</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>25</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>21</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>973.72881355932122</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>8645</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>60</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1002</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>8</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>28</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>14</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>6583</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
+        <v>77.72</v>
+      </c>
+      <c r="C3">
         <v>-76.919200000000004</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-12.0261</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>135872</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>34672</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>1215</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1132</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>5341</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>216</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>482</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>4353</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>123675</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>746</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>2513</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>36</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>65</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>111</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>20440</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>4100</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
+        <v>3.33</v>
+      </c>
+      <c r="C4">
         <v>-77.021699999999996</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-12.1492</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>4832</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>6461</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>1887</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>302</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>22</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>55</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>7475</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>8832</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>23</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1919</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>90</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>9</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>56</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="B5">
+        <v>3.22</v>
+      </c>
+      <c r="C5">
         <v>-77.053600000000003</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-12.056900000000001</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>9344</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>13635</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>5759</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>902</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>21</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>93</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>64</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>4921</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>20096</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>123</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>3336</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>11</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>460</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>6</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>249</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6">
+        <v>346.88</v>
+      </c>
+      <c r="C6">
         <v>-77.026899999999998</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-11.89</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>93870</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5427</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>519</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>402</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>690</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>1170</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>131</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>387</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>2086.0565797650052</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>56898</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>357</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>5504</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>21</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>64</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>88</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>14643</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>1965</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>25</v>
       </c>
       <c r="B7">
+        <v>39.5</v>
+      </c>
+      <c r="C7">
         <v>-76.769199999999998</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-11.9756</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>10385</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1192</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>61</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>43</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>22</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>71</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>3716.5185185185169</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8947</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>63</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>333</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>13</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>12</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>340</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8">
+        <v>38.94</v>
+      </c>
+      <c r="C8">
         <v>-77.0244</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-12.1692</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>58261</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>18519</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>2214</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>944</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
         <v>315</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>133</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>282</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4488</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>65387</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>404</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>743</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>113</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>20</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4757</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2042</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>27</v>
       </c>
       <c r="B9">
+        <v>240.33</v>
+      </c>
+      <c r="C9">
         <v>-12.1206</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-76.814400000000006</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>11576</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>102</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>55</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>182</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1283</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>17</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>34</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>5550</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>40</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>99</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>7</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>18</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2789</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10">
+        <v>48.75</v>
+      </c>
+      <c r="C10">
         <v>-75.0822</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-11.7181</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>115350</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>16806</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>334</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>526</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
       <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
         <v>579</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>178</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>369</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3445.6695169230757</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>105529</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>657</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>797</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>20</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>39</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>65</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>8754</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>2514</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11">
+        <v>12.54</v>
+      </c>
+      <c r="C11">
         <v>-76.9833</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-12.048299999999999</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>38957</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>11944</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>624</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>456</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>163</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>49</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>106</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>3639.8535993007868</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>43970</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>425</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>899</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>19</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>27</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>21</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>849</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>516</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12">
+        <v>14.56</v>
+      </c>
+      <c r="C12">
         <v>-77.534400000000005</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-9.5191700000000008</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>47789</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4997</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>153</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>222</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
       <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>361</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>59</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>58</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3800</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>41887</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>320</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>673</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>17</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>25</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>3706</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>1912</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13">
+        <v>4.57</v>
+      </c>
+      <c r="C13">
         <v>-77.045299999999997</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-12.07</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>6236</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>19230</v>
       </c>
-      <c r="F13" s="2">
+      <c r="G13" s="2">
         <v>2772</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>456</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
       <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>7</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>42</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>115</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>6219</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>21983</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>72</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>739</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>9</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>91</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>70</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
+        <v>65.75</v>
+      </c>
+      <c r="C14">
         <v>-76.916899999999998</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>-12.078900000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>25026</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>19309</v>
       </c>
-      <c r="F14" s="2">
+      <c r="G14" s="2">
         <v>339</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>115</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
       <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
         <v>44</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>49</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>36</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5900</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>37340</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>94</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>28</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>5</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
       </c>
       <c r="R14">
         <v>2</v>
       </c>
       <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
         <v>279</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15">
+        <v>8.74</v>
+      </c>
+      <c r="C15">
         <v>-79.836699999999993</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-6.7883300000000002</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>24532</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>27088</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>7053</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1932</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
         <v>52</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>275</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>162</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4921</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>43935</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>393</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2984</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>32</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>517</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>19</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>575</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16">
+        <v>3.03</v>
+      </c>
+      <c r="C16">
         <v>-77.031700000000001</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-12.083299999999999</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>6550</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12795</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>2117</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>417</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>16</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>37</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>14</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>6219</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>15786</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>73</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>1356</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>5</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>84</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>122</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17">
+        <v>18.25</v>
+      </c>
+      <c r="C17">
         <v>-77.070599999999999</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-11.9917</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>63874</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>25436</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>252</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>290</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>95</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>159</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>242</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3816</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>78588</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>273</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2888</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>8</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>17</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>13</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>702</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
+        <v>236.47</v>
+      </c>
+      <c r="C18">
         <v>-76.697199999999995</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>-11.9358</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>75004</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>5476</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>1093</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>725</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
         <v>5642</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>137</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>119</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2791.2500587408636</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>44337</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>550</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>3717</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>32</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>114</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>138</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>10357</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>1637</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
+        <v>236.47</v>
+      </c>
+      <c r="C19">
         <v>-76.869399999999999</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-12.2736</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>25395</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1639</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>506</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>286</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
         <v>181</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>88</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>44</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>2310</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>16985</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>117</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>313</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>6</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>24</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>12</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>3304</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>1176</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>38</v>
       </c>
       <c r="B20">
+        <v>3.61</v>
+      </c>
+      <c r="C20">
         <v>-77.066900000000004</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-12.091699999999999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>5864</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>14034</v>
       </c>
-      <c r="F20" s="2">
+      <c r="G20" s="2">
         <v>1947</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>280</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
         <v>10</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>13</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>43</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>6219</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>17545</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>82</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>721</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>3</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>71</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>77</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>39</v>
       </c>
       <c r="B21">
+        <v>4.38</v>
+      </c>
+      <c r="C21">
         <v>-77.801900000000003</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>9.1105599999999995</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>12042</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>16650</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>1248</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>333</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
       <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>12</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>28</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>43</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6219</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>24509</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>114</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>486</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>4</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>44</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>103</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>40</v>
       </c>
       <c r="B22">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="C22">
         <v>-71.5214</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>-16.395</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>9336</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>38628</v>
       </c>
-      <c r="F22" s="2">
+      <c r="G22" s="2">
         <v>1990</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>270</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
       <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>39</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>170</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>7475</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>35823</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>142</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>835</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>73</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>4</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>52</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>41</v>
       </c>
       <c r="B23">
+        <v>160.22999999999999</v>
+      </c>
+      <c r="C23">
         <v>-76.859399999999994</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-12.2294</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>36811</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>346</v>
       </c>
-      <c r="F23" s="2">
+      <c r="G23" s="2">
         <v>165</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>283</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>10</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>2649</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>40</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>68</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>16121</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>153</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>278</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>18</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>34</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>35</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>10325</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>1185</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>42</v>
       </c>
       <c r="B24">
+        <v>37.83</v>
+      </c>
+      <c r="C24">
         <v>-76.797499999999999</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>-12.4817</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>6817</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>169</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G24" s="2">
         <v>13</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>20</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>256</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>8</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>26</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2310</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2355</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>14</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>35</v>
-      </c>
-      <c r="P24">
-        <v>5</v>
       </c>
       <c r="Q24">
         <v>5</v>
       </c>
       <c r="R24">
+        <v>5</v>
+      </c>
+      <c r="S24">
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>802</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>43</v>
       </c>
       <c r="B25">
+        <v>71.180000000000007</v>
+      </c>
+      <c r="C25">
         <v>-77.076899999999995</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-11.8667</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>86724</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>5529</v>
       </c>
-      <c r="F25" s="2">
+      <c r="G25" s="2">
         <v>374</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>496</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>2246</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>192</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>93</v>
       </c>
-      <c r="L25" s="3">
+      <c r="M25" s="3">
         <v>2538.7791642104085</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>55311</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>406</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1898</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>21</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>68</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>97</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>18871</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2538</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>44</v>
       </c>
       <c r="B26">
+        <v>119.5</v>
+      </c>
+      <c r="C26">
         <v>-76.826400000000007</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-12.3375</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>8022</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>859</v>
       </c>
-      <c r="F26" s="2">
+      <c r="G26" s="2">
         <v>15</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>38</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>387</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>7</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>19</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4630.0894470147286</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2413</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>25</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>37</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>5</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>9</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>5</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>2011</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>968</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>45</v>
       </c>
       <c r="B27">
+        <v>130.5</v>
+      </c>
+      <c r="C27">
         <v>-76.795599999999993</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>-12.3653</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>3691</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>16</v>
       </c>
-      <c r="F27" s="2">
+      <c r="G27" s="2">
         <v>2</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>18</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>8</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>30</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>6</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>20</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2310</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1597</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>18</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>8</v>
       </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
         <v>6</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>2</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>145</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>46</v>
       </c>
       <c r="B28">
+        <v>11.87</v>
+      </c>
+      <c r="C28">
         <v>-77.026700000000005</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>-12.042199999999999</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>35651</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>11351</v>
       </c>
-      <c r="F28" s="2">
+      <c r="G28" s="2">
         <v>4497</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1657</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
       <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>152</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>61</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>71</v>
       </c>
-      <c r="L28" s="3">
+      <c r="M28" s="3">
         <v>4206.7213114753913</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>36767</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>393</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>3846</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>28</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1067</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>49</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>2031</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1326</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>47</v>
       </c>
       <c r="B29">
+        <v>45.01</v>
+      </c>
+      <c r="C29">
         <v>76.780299999999997</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>-12.3894</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3009</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>702</v>
       </c>
-      <c r="F29" s="2">
+      <c r="G29" s="2">
         <v>2</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
       <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
         <v>15</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>5</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>5331.5340909090737</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1653</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>7</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>20</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>38</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>6</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <v>149</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>48</v>
       </c>
       <c r="B30">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="C30">
         <v>-76.999200000000002</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-12.107200000000001</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>13022</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>26897</v>
       </c>
-      <c r="F30" s="2">
+      <c r="G30" s="2">
         <v>90</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>77</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
       <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
         <v>9</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>26</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>235</v>
       </c>
-      <c r="L30" s="3">
+      <c r="M30" s="3">
         <v>7475</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>33315</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>91</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>18</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>4</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
       <c r="R30">
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <v>42</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>49</v>
       </c>
       <c r="B31">
+        <v>11.1</v>
+      </c>
+      <c r="C31">
         <v>-75.238600000000005</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-13.9567</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7475</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>19699</v>
       </c>
-      <c r="F31" s="2">
+      <c r="G31" s="2">
         <v>287</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>85</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
       <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>4</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>21</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>55</v>
       </c>
-      <c r="L31" s="3">
+      <c r="M31" s="3">
         <v>7475</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>20468</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>77</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>79</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>3</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>7</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <v>14</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32">
+        <v>131.25</v>
+      </c>
+      <c r="C32">
         <v>-77.010300000000001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>-12.029400000000001</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>260403</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>34097</v>
       </c>
-      <c r="F32" s="2">
+      <c r="G32" s="2">
         <v>961</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1430</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
       <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>16827</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>374</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>489</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3394.454538003627</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>195632</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>1148</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>682</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>44</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>82</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>204</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>46110</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>11620</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>51</v>
       </c>
       <c r="B33">
+        <v>23.98</v>
+      </c>
+      <c r="C33">
         <v>-76.9636</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>-12.1633</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>76586</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>10120</v>
       </c>
-      <c r="F33" s="2">
+      <c r="G33" s="2">
         <v>176</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>209</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>463</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>76</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>226</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3686</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>68735</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>408</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>126</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>22</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>16</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>25</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>5249</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>3549</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>52</v>
       </c>
       <c r="B34">
+        <v>3.49</v>
+      </c>
+      <c r="C34">
         <v>-77.3292</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>-9.0944400000000005</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>7433</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>7117</v>
       </c>
-      <c r="F34" s="2">
+      <c r="G34" s="2">
         <v>185</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>140</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
       <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>11</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>76</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>133</v>
       </c>
-      <c r="L34" s="3">
+      <c r="M34" s="3">
         <v>4308.75</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>13288</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>84</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>40</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>3</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>1</v>
       </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <v>109</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>77</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>53</v>
       </c>
       <c r="B35">
+        <v>36.909999999999997</v>
+      </c>
+      <c r="C35">
         <v>-77.057199999999995</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>-12.0303</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>133620</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>42443</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>1258</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1257</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
         <v>283</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>239</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>434</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3241</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>156101</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>724</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>1514</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>17</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>54</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>44</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>3911</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>1199</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>54</v>
       </c>
       <c r="B36">
+        <v>10.72</v>
+      </c>
+      <c r="C36">
         <v>-73.981099999999998</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-13.0128</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>21268</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>29018</v>
       </c>
-      <c r="F36" s="2">
+      <c r="G36" s="2">
         <v>1798</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>568</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
       <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
         <v>16</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>29</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>54</v>
       </c>
-      <c r="L36" s="3">
+      <c r="M36" s="3">
         <v>6219</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>42384</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>199</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>858</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>12</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>28</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>2</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>237</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>55</v>
       </c>
       <c r="B37">
+        <v>10.69</v>
+      </c>
+      <c r="C37">
         <v>-76.971400000000003</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>-12.0436</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>36490</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>18981</v>
       </c>
-      <c r="F37" s="2">
+      <c r="G37" s="2">
         <v>394</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>533</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
       <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>53</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>89</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>82</v>
       </c>
-      <c r="L37" s="3">
+      <c r="M37" s="3">
         <v>3971.8518518518244</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>50411</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>285</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>195</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>5</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>6</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>9</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>491</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>391</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>56</v>
       </c>
       <c r="B38">
+        <v>9.81</v>
+      </c>
+      <c r="C38">
         <v>-77.455299999999994</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>-6.4530599999999998</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>558</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>758</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>14</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>1</v>
       </c>
       <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
         <v>2</v>
       </c>
-      <c r="L38" s="3">
+      <c r="M38" s="3">
         <v>3870</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>272</v>
       </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
       <c r="O38">
         <v>0</v>
       </c>
@@ -2973,319 +3090,337 @@
         <v>0</v>
       </c>
       <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <v>1</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>57</v>
       </c>
       <c r="B39">
+        <v>21.5</v>
+      </c>
+      <c r="C39">
         <v>-77.455299999999994</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>-6.4530599999999998</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>13593</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>70</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>8</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>9</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
         <v>674</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>5</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>30</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M39" s="3">
         <v>1200</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>3077</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>16</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>640</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>2</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>8</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>10</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>4391</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>58</v>
       </c>
       <c r="B40">
+        <v>34.75</v>
+      </c>
+      <c r="C40">
         <v>-76.442800000000005</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>-11.885300000000001</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>46275</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>68733</v>
       </c>
-      <c r="F40" s="2">
+      <c r="G40" s="2">
         <v>1714</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>664</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
       <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>58</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>68</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>157</v>
       </c>
-      <c r="L40" s="3">
+      <c r="M40" s="3">
         <v>7475</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>94313</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>397</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>1255</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>4</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>18</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>20</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>639</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>59</v>
       </c>
       <c r="B41">
+        <v>3.46</v>
+      </c>
+      <c r="C41">
         <v>-77.021699999999996</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>-12.118600000000001</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>11820</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>18894</v>
       </c>
-      <c r="F41" s="2">
+      <c r="G41" s="2">
         <v>2818</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>653</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
         <v>16</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>77</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>59</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6219</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>25693</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>126</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>1643</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>3</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>95</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>11</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>185</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>60</v>
       </c>
       <c r="B42">
+        <v>35.46</v>
+      </c>
+      <c r="C42">
         <v>-76.936899999999994</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>-12.2125</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>86632</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>5277</v>
       </c>
-      <c r="F42" s="2">
+      <c r="G42" s="2">
         <v>189</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>281</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
       <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>312</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>127</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>221</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2759.5602559080817</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>72862</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>389</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>136</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>14</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>48</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>22</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>7208</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>3096</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>61</v>
       </c>
       <c r="B43">
+        <v>70.569999999999993</v>
+      </c>
+      <c r="C43">
         <v>-76.943600000000004</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-12.1622</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>101592</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>3285</v>
       </c>
-      <c r="F43" s="2">
+      <c r="G43" s="2">
         <v>516</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>447</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>2286</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>86</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>143</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2310</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>68372</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>452</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>495</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>28</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>31</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>80</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>14968</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>9395</v>
       </c>
     </row>
@@ -3303,7 +3438,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
